--- a/other/merged-mining-calculations.xlsx
+++ b/other/merged-mining-calculations.xlsx
@@ -8,36 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevoulee/modelling/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F046C6E-5651-C14A-B918-432DD6068464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B04E1B20-6703-3F47-9A32-0883FF22A1CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{B5696D26-6AB2-484D-84A0-7FA09124E156}"/>
+    <workbookView xWindow="1040" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{B5696D26-6AB2-484D-84A0-7FA09124E156}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario 1" sheetId="6" r:id="rId1"/>
     <sheet name="Scenario 2" sheetId="2" r:id="rId2"/>
     <sheet name="Scenario 3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Scenario 1'!$D$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Scenario 1'!$D$3:$D$102</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Scenario 1'!$F$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Scenario 1'!$F$3:$F$102</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Scenario 1'!$D$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Scenario 1'!$D$3:$D$102</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Scenario 1'!$E$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Scenario 1'!$E$3:$E$102</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Scenario 1'!$F$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Scenario 1'!$F$3:$F$102</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Scenario 1'!$E$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Scenario 1'!$E$3:$E$102</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Scenario 1'!$F$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Scenario 1'!$F$3:$F$102</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Scenario 1'!$D$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Scenario 1'!$D$3:$D$102</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Scenario 1'!$E$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Scenario 1'!$E$3:$E$102</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Mining Power</t>
   </si>
@@ -80,6 +61,15 @@
   </si>
   <si>
     <t>Probability of finding blocks in a row using C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha trimmed mean </t>
+  </si>
+  <si>
+    <t>use monero?</t>
+  </si>
+  <si>
+    <t>me</t>
   </si>
 </sst>
 </file>
@@ -132,12 +122,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6793,16 +6783,13 @@
                   <a:buFontTx/>
                   <a:buNone/>
                   <a:tabLst/>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr>
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:sysClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-GB"/>
@@ -7045,16 +7032,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-GB"/>
@@ -12764,16 +12748,13 @@
                   <a:buFontTx/>
                   <a:buNone/>
                   <a:tabLst/>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr>
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:sysClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-GB"/>
@@ -21665,10 +21646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB14E4D2-8011-4C46-813C-21992620371C}">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21677,24 +21658,24 @@
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <v>1</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>2</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>5</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -21704,13 +21685,13 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.01</v>
       </c>
@@ -21730,8 +21711,11 @@
         <f>(C3)^$F$1</f>
         <v>1.0000000000000001E-20</v>
       </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.02</v>
       </c>
@@ -21751,8 +21735,11 @@
         <f t="shared" ref="F4:F67" si="3">(C4)^$F$1</f>
         <v>1.0240000000000001E-17</v>
       </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.03</v>
       </c>
@@ -21772,8 +21759,11 @@
         <f t="shared" si="3"/>
         <v>5.9048999999999996E-16</v>
       </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0.04</v>
       </c>
@@ -21794,7 +21784,7 @@
         <v>1.0485760000000001E-14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0.05</v>
       </c>
@@ -21815,7 +21805,7 @@
         <v>9.7656250000000105E-14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0.06</v>
       </c>
@@ -21836,7 +21826,7 @@
         <v>6.0466175999999996E-13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -21857,7 +21847,7 @@
         <v>2.8247524900000018E-12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0.08</v>
       </c>
@@ -21878,7 +21868,7 @@
         <v>1.0737418240000001E-11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0.09</v>
       </c>
@@ -21899,7 +21889,7 @@
         <v>3.4867844009999988E-11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>0.1</v>
       </c>
@@ -21920,7 +21910,7 @@
         <v>1.0000000000000011E-10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0.11</v>
       </c>
@@ -21941,7 +21931,7 @@
         <v>2.5937424600999998E-10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0.12</v>
       </c>
@@ -21962,7 +21952,7 @@
         <v>6.1917364223999996E-10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0.13</v>
       </c>
@@ -21983,7 +21973,7 @@
         <v>1.3785849184900006E-9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0.14000000000000001</v>
       </c>
@@ -23092,7 +23082,7 @@
         <v>0.12523325760000004</v>
       </c>
       <c r="F68">
-        <f t="shared" ref="F68:F103" si="7">(C68)^$F$1</f>
+        <f t="shared" ref="F68:F102" si="7">(C68)^$F$1</f>
         <v>1.5683368809107964E-2</v>
       </c>
     </row>
@@ -23824,7 +23814,7 @@
   <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23837,29 +23827,29 @@
       <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <v>0.3</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <f>1-(C1)</f>
         <v>0.7</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>2</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>5</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="3">
         <v>10</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="3">
         <v>2</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="3">
         <v>5</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="3">
         <v>10</v>
       </c>
     </row>
@@ -23876,16 +23866,16 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -23923,7 +23913,7 @@
         <f>(D3)^$J$1</f>
         <v>2.8247524899999972E-22</v>
       </c>
-      <c r="V3" s="5"/>
+      <c r="V3" s="4"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -27602,7 +27592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09D8213-5383-2F40-9315-C6CC839DD7AA}">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="Q23" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -27673,21 +27663,21 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">

--- a/other/merged-mining-calculations.xlsx
+++ b/other/merged-mining-calculations.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevoulee/modelling/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B04E1B20-6703-3F47-9A32-0883FF22A1CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C65E57-CE2A-2F46-8AFC-2B6AE7F9159E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{B5696D26-6AB2-484D-84A0-7FA09124E156}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" xr2:uid="{B5696D26-6AB2-484D-84A0-7FA09124E156}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario 1" sheetId="6" r:id="rId1"/>
     <sheet name="Scenario 2" sheetId="2" r:id="rId2"/>
     <sheet name="Scenario 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21648,7 +21648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB14E4D2-8011-4C46-813C-21992620371C}">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -32988,4 +32988,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AA15F0-EB49-CC41-BC00-4DD0FFBAFC1B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>